--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -200,12 +205,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,13 +466,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,7 +524,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,9 +557,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,6 +609,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,22 +801,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -799,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -813,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -834,23 +879,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -897,7 +942,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -918,7 +963,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -939,7 +984,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -960,7 +1005,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -982,7 +1027,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
@@ -1004,7 +1049,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -1024,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
@@ -1044,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
@@ -1144,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1170,26 +1215,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1230,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1265,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1300,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1335,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1370,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1475,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1545,7 +1590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1580,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1615,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1650,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1685,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1726,24 +1771,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1784,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="33" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1807,7 +1852,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>54</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="61">
   <si>
     <t>TC</t>
   </si>
@@ -196,9 +191,6 @@
   </si>
   <si>
     <t>Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -213,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,7 +458,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,26 +549,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,23 +584,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,22 +759,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -858,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -879,23 +837,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,7 +900,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -963,7 +921,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -984,7 +942,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +963,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +985,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
@@ -1049,7 +1007,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1129,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
@@ -1189,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1215,26 +1173,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1275,15 +1233,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>24</v>
@@ -1298,7 +1256,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>54</v>
@@ -1310,15 +1268,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>24</v>
@@ -1333,7 +1291,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>54</v>
@@ -1345,15 +1303,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>24</v>
@@ -1368,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>54</v>
@@ -1380,15 +1338,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>24</v>
@@ -1403,7 +1361,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>54</v>
@@ -1415,15 +1373,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>24</v>
@@ -1438,7 +1396,7 @@
         <v>53</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>54</v>
@@ -1450,15 +1408,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>24</v>
@@ -1473,7 +1431,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>54</v>
@@ -1485,15 +1443,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>24</v>
@@ -1508,7 +1466,7 @@
         <v>53</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>54</v>
@@ -1520,15 +1478,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>24</v>
@@ -1543,7 +1501,7 @@
         <v>53</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>54</v>
@@ -1555,15 +1513,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>24</v>
@@ -1578,7 +1536,7 @@
         <v>53</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>54</v>
@@ -1590,15 +1548,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>24</v>
@@ -1613,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>54</v>
@@ -1625,15 +1583,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>24</v>
@@ -1648,7 +1606,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>54</v>
@@ -1660,15 +1618,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>24</v>
@@ -1683,7 +1641,7 @@
         <v>53</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>54</v>
@@ -1695,15 +1653,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>24</v>
@@ -1718,7 +1676,7 @@
         <v>53</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>54</v>
@@ -1730,15 +1688,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>24</v>
@@ -1753,7 +1711,7 @@
         <v>53</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>54</v>
@@ -1771,24 +1729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1829,15 +1787,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="33" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>24</v>
@@ -1852,7 +1810,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>54</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,113 +364,113 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="13" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,10 +487,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -524,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,7 +682,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -690,13 +691,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -706,7 +707,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -715,7 +716,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -724,7 +725,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -734,12 +735,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -770,7 +771,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -789,7 +790,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -801,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -810,10 +811,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -873,13 +874,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -888,11 +889,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.899999999999999" r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.899999999999999" r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1210,12 +1211,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1224,17 +1225,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1766,12 +1767,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1780,12 +1781,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1829,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="33" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1866,6 +1867,6 @@
       <c r="L2" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="1"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -191,6 +196,9 @@
   </si>
   <si>
     <t>Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx</t>
+  </si>
+  <si>
+    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -205,7 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,113 +364,113 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="13" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -478,10 +487,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -516,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,9 +558,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,6 +610,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,7 +682,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -648,13 +691,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -664,7 +707,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -673,7 +716,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -682,7 +725,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -692,12 +735,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -728,7 +771,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -747,7 +790,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -759,22 +802,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -802,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -816,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -831,29 +874,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -900,7 +943,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -921,7 +964,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -942,7 +985,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -963,7 +1006,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1028,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1050,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
@@ -1047,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1067,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1087,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.899999999999999" r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
@@ -1107,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -1127,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
@@ -1147,7 +1190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.899999999999999" r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1168,31 +1211,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1233,15 +1276,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>24</v>
@@ -1256,7 +1299,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>54</v>
@@ -1268,15 +1311,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>24</v>
@@ -1291,7 +1334,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>54</v>
@@ -1303,15 +1346,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>24</v>
@@ -1326,7 +1369,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>54</v>
@@ -1338,15 +1381,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>24</v>
@@ -1361,7 +1404,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>54</v>
@@ -1373,15 +1416,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>24</v>
@@ -1396,7 +1439,7 @@
         <v>53</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>54</v>
@@ -1408,15 +1451,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>24</v>
@@ -1431,7 +1474,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>54</v>
@@ -1443,15 +1486,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>24</v>
@@ -1466,7 +1509,7 @@
         <v>53</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>54</v>
@@ -1478,15 +1521,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>24</v>
@@ -1501,7 +1544,7 @@
         <v>53</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>54</v>
@@ -1513,15 +1556,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>24</v>
@@ -1536,7 +1579,7 @@
         <v>53</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>54</v>
@@ -1548,15 +1591,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>24</v>
@@ -1571,7 +1614,7 @@
         <v>53</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>54</v>
@@ -1583,15 +1626,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>24</v>
@@ -1606,7 +1649,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>54</v>
@@ -1618,15 +1661,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>24</v>
@@ -1641,7 +1684,7 @@
         <v>53</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>54</v>
@@ -1653,15 +1696,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>24</v>
@@ -1676,7 +1719,7 @@
         <v>53</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>54</v>
@@ -1688,15 +1731,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>24</v>
@@ -1711,7 +1754,7 @@
         <v>53</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>54</v>
@@ -1724,29 +1767,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1787,15 +1830,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="33" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>24</v>
@@ -1810,7 +1853,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>54</v>
@@ -1824,6 +1867,6 @@
       <c r="L2" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
